--- a/inst/extdata/tau_gaps.xlsx
+++ b/inst/extdata/tau_gaps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mazza\Documents\Bioinformatics\Final Project\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mazza\Documents\Bioinformatics\repos\borgkit\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A41B91-3547-41A2-B445-9E6C7C794495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126CB35B-33BA-4531-8780-BEAB81E2F5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{6B345B5F-2FAF-4362-BB32-3D32623403AC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6B345B5F-2FAF-4362-BB32-3D32623403AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
-    <t>KO</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>error</t>
+  </si>
+  <si>
+    <t>genotype</t>
   </si>
 </sst>
 </file>
@@ -433,9 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4320618A-5BA0-416F-9ED1-84D9DBE9ED8B}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -444,21 +442,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -472,7 +470,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -486,7 +484,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -500,7 +498,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -514,7 +512,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -528,7 +526,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -542,7 +540,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -556,7 +554,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>6</v>
